--- a/biology/Médecine/Ventouse_obstétricale/Ventouse_obstétricale.xlsx
+++ b/biology/Médecine/Ventouse_obstétricale/Ventouse_obstétricale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ventouse_obst%C3%A9tricale</t>
+          <t>Ventouse_obstétricale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ventouse obstétricale, aussi appelée en anglais vacuum extractor, est un instrument d'extraction du fœtus par voie vaginale lors d'un accouchement.
 Il s'agit d'une simple cupule métallique ou siliconée, qu'on place sur la voûte crânienne de l'enfant après l'avoir introduit dans le vagin maternel. La préhension est assurée par un tuyau qui relie la ventouse à un appareil à dépression à côté de la table d'accouchement. La ventouse adhère donc à la peau du crâne (le scalp fœtal) uniquement par pression atmosphérique.
